--- a/data/trans_orig/P36S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36S3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35DC9D1E-3117-427D-A24B-C067B7D2A478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38D09CE-4178-402A-8A57-15FB20213912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2EB15156-1852-4A8E-B151-80E5C71924FB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4381216C-BBB0-43CE-BED0-94D7125D9559}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="413">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2007 (Tasa respuesta: 6,39%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>14,09%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>6,71%</t>
@@ -88,16 +88,16 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>15,53%</t>
+    <t>15,16%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>Alimentos como huevos, queso, jamón, etc</t>
@@ -106,28 +106,28 @@
     <t>13,65%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>13,47%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>Fruta y/o zumo</t>
@@ -136,28 +136,28 @@
     <t>72,25%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>78,37%</t>
   </si>
   <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
@@ -184,13 +184,13 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>8,72%</t>
+    <t>9,16%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>5,04%</t>
+    <t>4,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -199,85 +199,82 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>35,7%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
   </si>
   <si>
     <t>16,18%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>25,39%</t>
   </si>
   <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
   </si>
   <si>
     <t>71,36%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>65,66%</t>
   </si>
   <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
   </si>
   <si>
     <t>1,9%</t>
@@ -286,994 +283,991 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,26%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
     <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -1694,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9030A8-35B0-46F2-902A-37F31F7D0101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DF42BF-38E4-4127-8186-E57D33FD28EA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2126,13 +2120,13 @@
         <v>5381</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2141,13 +2135,13 @@
         <v>10993</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2156,13 +2150,13 @@
         <v>16373</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2171,13 @@
         <v>38286</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -2192,13 +2186,13 @@
         <v>19432</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -2207,13 +2201,13 @@
         <v>57718</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2222,13 @@
         <v>63567</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -2243,13 +2237,13 @@
         <v>85704</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -2258,13 +2252,13 @@
         <v>149270</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,7 +2279,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2294,13 +2288,13 @@
         <v>1134</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2309,13 +2303,13 @@
         <v>1134</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,7 +2330,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2345,13 +2339,13 @@
         <v>2830</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2360,13 +2354,13 @@
         <v>2830</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2416,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2440,7 +2434,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2455,7 +2449,7 @@
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2470,7 +2464,7 @@
         <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2479,13 @@
         <v>7659</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2500,13 +2494,13 @@
         <v>6709</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2515,13 +2509,13 @@
         <v>14367</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2530,13 @@
         <v>39204</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -2551,13 +2545,13 @@
         <v>46219</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -2566,13 +2560,13 @@
         <v>85423</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,7 +2587,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2608,7 +2602,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2623,7 +2617,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,7 +2638,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2653,13 +2647,13 @@
         <v>1977</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2668,13 +2662,13 @@
         <v>1977</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2736,13 @@
         <v>12239</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2757,13 +2751,13 @@
         <v>15071</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -2772,13 +2766,13 @@
         <v>27310</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2787,13 @@
         <v>52589</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -2808,13 +2802,13 @@
         <v>34236</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -2823,13 +2817,13 @@
         <v>86825</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2838,13 @@
         <v>137933</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>168</v>
@@ -2859,13 +2853,13 @@
         <v>179561</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>296</v>
@@ -2874,13 +2868,13 @@
         <v>317494</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2895,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2910,13 +2904,13 @@
         <v>1134</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2925,13 +2919,13 @@
         <v>1134</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,7 +2946,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2961,13 +2955,13 @@
         <v>5783</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2976,13 +2970,13 @@
         <v>5783</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3032,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3057,7 +3051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B8367B-F08F-4E2E-8BFF-321B5841BD72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D23F56E-63DD-4BC7-AEE2-E9CF4A22B688}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3074,7 +3068,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3181,13 +3175,13 @@
         <v>4249</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3196,10 +3190,10 @@
         <v>4238</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>161</v>
@@ -3495,7 +3489,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3504,13 +3498,13 @@
         <v>3031</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3678,7 +3672,7 @@
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3687,13 @@
         <v>3005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3785,7 +3779,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3878,13 +3872,13 @@
         <v>5140</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3893,13 @@
         <v>46505</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -3914,13 +3908,13 @@
         <v>52234</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M18" s="7">
         <v>84</v>
@@ -3929,13 +3923,13 @@
         <v>98740</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,7 +3980,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3995,13 @@
         <v>1393</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4031,13 +4025,13 @@
         <v>1393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4099,13 @@
         <v>6242</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -4120,13 +4114,13 @@
         <v>11357</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4135,13 +4129,13 @@
         <v>17600</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4150,13 @@
         <v>80637</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -4171,13 +4165,13 @@
         <v>36513</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -4186,13 +4180,13 @@
         <v>117150</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4201,13 @@
         <v>206770</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>201</v>
@@ -4222,13 +4216,13 @@
         <v>226368</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M24" s="7">
         <v>386</v>
@@ -4237,13 +4231,13 @@
         <v>433137</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4258,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4273,13 +4267,13 @@
         <v>972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -4288,13 +4282,13 @@
         <v>972</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4303,13 @@
         <v>5666</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4330,7 +4324,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4339,13 +4333,13 @@
         <v>5666</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,7 +4395,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4420,7 +4414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA447C6F-214F-48BE-9470-FB501E7911C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438F9382-EE8A-4D16-987A-ECD5A252C962}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4437,7 +4431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4544,13 +4538,13 @@
         <v>14183</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -4559,13 +4553,13 @@
         <v>30568</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -4574,13 +4568,13 @@
         <v>44751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4589,13 @@
         <v>17007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -4610,13 +4604,13 @@
         <v>32620</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4625,13 +4619,13 @@
         <v>49627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,16 +4637,16 @@
         <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>32272</v>
+        <v>32273</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>57</v>
@@ -4661,13 +4655,13 @@
         <v>63827</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>91</v>
@@ -4676,13 +4670,13 @@
         <v>96100</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4691,13 @@
         <v>901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4718,7 +4712,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4727,13 +4721,13 @@
         <v>901</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>94</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4748,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4769,7 +4763,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4796,7 +4790,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>64363</v>
+        <v>64364</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -4852,13 +4846,13 @@
         <v>48256</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4867,13 +4861,13 @@
         <v>45746</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -4882,13 +4876,13 @@
         <v>94002</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4897,13 @@
         <v>120456</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H11" s="7">
         <v>99</v>
@@ -4918,13 +4912,13 @@
         <v>105322</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>214</v>
@@ -4933,13 +4927,13 @@
         <v>225778</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,7 +5020,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5035,13 +5029,13 @@
         <v>2760</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,7 +5056,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5077,7 +5071,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5148,7 +5142,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5160,13 +5154,13 @@
         <v>12985</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5175,13 +5169,13 @@
         <v>22614</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5190,13 +5184,13 @@
         <v>35599</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5205,13 @@
         <v>36918</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5226,13 +5220,13 @@
         <v>25286</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -5241,13 +5235,13 @@
         <v>62204</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5256,13 @@
         <v>63680</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -5277,13 +5271,13 @@
         <v>60393</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>116</v>
@@ -5292,13 +5286,13 @@
         <v>124073</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5307,13 @@
         <v>1072</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5334,7 +5328,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5343,13 +5337,13 @@
         <v>1072</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,7 +5364,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5385,7 +5379,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5400,7 +5394,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5462,13 @@
         <v>75424</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -5483,13 +5477,13 @@
         <v>98928</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -5498,13 +5492,13 @@
         <v>174352</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5513,13 @@
         <v>174380</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -5534,13 +5528,13 @@
         <v>163229</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M23" s="7">
         <v>315</v>
@@ -5549,13 +5543,13 @@
         <v>337609</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5564,13 @@
         <v>253693</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H24" s="7">
         <v>277</v>
@@ -5585,13 +5579,13 @@
         <v>297264</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M24" s="7">
         <v>514</v>
@@ -5600,13 +5594,13 @@
         <v>550958</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5615,13 @@
         <v>3737</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>405</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5636,13 +5630,13 @@
         <v>996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -5651,13 +5645,13 @@
         <v>4733</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>410</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,7 +5672,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5693,7 +5687,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5708,7 +5702,7 @@
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,7 +5758,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36S3-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38D09CE-4178-402A-8A57-15FB20213912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{173693E0-E057-4D42-AC36-BB58546B08B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4381216C-BBB0-43CE-BED0-94D7125D9559}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A03ACF77-2FD9-4E9E-B76B-C1F4AF0CBDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="417">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2007 (Tasa respuesta: 6,39%)</t>
   </si>
@@ -76,1201 +76,1213 @@
     <t>14,09%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2016 (Tasa respuesta: 15,28%)</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
   </si>
   <si>
     <t>45,45%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>54,3%</t>
   </si>
   <si>
     <t>53,04%</t>
   </si>
   <si>
-    <t>56,84%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
   </si>
   <si>
     <t>51,6%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -1688,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DF42BF-38E4-4127-8186-E57D33FD28EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCEE13D-AE5F-433A-BD4F-6E9971A9FA5C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2120,13 +2132,13 @@
         <v>5381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2135,13 +2147,13 @@
         <v>10993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2150,13 +2162,13 @@
         <v>16373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2183,13 @@
         <v>38286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -2186,13 +2198,13 @@
         <v>19432</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -2201,13 +2213,13 @@
         <v>57718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2234,13 @@
         <v>63567</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -2237,13 +2249,13 @@
         <v>85704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -2252,13 +2264,13 @@
         <v>149270</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,7 +2291,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2288,13 +2300,13 @@
         <v>1134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2303,13 +2315,13 @@
         <v>1134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2342,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2339,13 +2351,13 @@
         <v>2830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2354,13 +2366,13 @@
         <v>2830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,7 +2428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2434,7 +2446,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2449,7 +2461,7 @@
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2464,7 +2476,7 @@
         <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2491,13 @@
         <v>7659</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2494,13 +2506,13 @@
         <v>6709</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2509,13 +2521,13 @@
         <v>14367</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2542,13 @@
         <v>39204</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -2545,13 +2557,13 @@
         <v>46219</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -2560,13 +2572,13 @@
         <v>85423</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,7 +2599,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2602,7 +2614,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2617,7 +2629,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2650,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2647,13 +2659,13 @@
         <v>1977</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2662,13 +2674,13 @@
         <v>1977</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2748,13 @@
         <v>12239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2751,13 +2763,13 @@
         <v>15071</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -2766,13 +2778,13 @@
         <v>27310</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2799,13 @@
         <v>52589</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -2802,13 +2814,13 @@
         <v>34236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -2817,13 +2829,13 @@
         <v>86825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2850,13 @@
         <v>137933</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>168</v>
@@ -2853,13 +2865,13 @@
         <v>179561</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>296</v>
@@ -2868,13 +2880,13 @@
         <v>317494</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2907,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2904,13 +2916,13 @@
         <v>1134</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2919,13 +2931,13 @@
         <v>1134</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,7 +2958,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2955,13 +2967,13 @@
         <v>5783</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2970,13 +2982,13 @@
         <v>5783</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3044,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D23F56E-63DD-4BC7-AEE2-E9CF4A22B688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B66DC3-40B3-442F-B639-7020AAA473D8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3068,7 +3080,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3175,13 +3187,13 @@
         <v>4249</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3190,13 +3202,13 @@
         <v>4238</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3205,10 +3217,10 @@
         <v>8487</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>164</v>
@@ -3489,7 +3501,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3498,13 +3510,13 @@
         <v>3031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3513,13 +3525,13 @@
         <v>5025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3546,13 @@
         <v>60735</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -3549,13 +3561,13 @@
         <v>21266</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3564,13 +3576,13 @@
         <v>82000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3597,13 @@
         <v>121449</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>101</v>
@@ -3600,13 +3612,13 @@
         <v>112620</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>211</v>
@@ -3615,13 +3627,13 @@
         <v>234069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,7 +3654,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3651,13 +3663,13 @@
         <v>972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3666,13 +3678,13 @@
         <v>972</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3699,13 @@
         <v>3005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3708,7 +3720,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3717,13 +3729,13 @@
         <v>3005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,7 +3791,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3797,7 +3809,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3806,13 +3818,13 @@
         <v>4088</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3821,7 +3833,7 @@
         <v>4088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>230</v>
@@ -3842,13 +3854,13 @@
         <v>5140</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3863,7 +3875,7 @@
         <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3872,7 +3884,7 @@
         <v>5140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>236</v>
@@ -3929,7 +3941,7 @@
         <v>245</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,7 +3962,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3965,7 +3977,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3980,7 +3992,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4007,13 @@
         <v>1393</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4016,7 +4028,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4025,13 +4037,13 @@
         <v>1393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4111,13 @@
         <v>6242</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -4171,7 +4183,7 @@
         <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -4180,13 +4192,13 @@
         <v>117150</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4213,13 @@
         <v>206770</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>201</v>
@@ -4258,7 +4270,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4267,13 +4279,13 @@
         <v>972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -4282,13 +4294,13 @@
         <v>972</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4315,13 @@
         <v>5666</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4324,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4333,13 +4345,13 @@
         <v>5666</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,7 +4407,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438F9382-EE8A-4D16-987A-ECD5A252C962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3743592-49EE-4377-9E3A-B951431CDE1D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4431,7 +4443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4538,13 +4550,13 @@
         <v>14183</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -4553,13 +4565,13 @@
         <v>30568</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -4568,13 +4580,13 @@
         <v>44751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4601,13 @@
         <v>17007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -4604,13 +4616,13 @@
         <v>32620</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4619,13 +4631,13 @@
         <v>49627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4652,13 @@
         <v>32273</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H6" s="7">
         <v>57</v>
@@ -4655,13 +4667,13 @@
         <v>63827</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M6" s="7">
         <v>91</v>
@@ -4670,13 +4682,13 @@
         <v>96100</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4703,13 @@
         <v>901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4712,7 +4724,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4721,13 +4733,13 @@
         <v>901</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,7 +4760,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4763,7 +4775,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4846,13 +4858,13 @@
         <v>48256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4861,13 +4873,13 @@
         <v>45746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -4876,13 +4888,13 @@
         <v>94002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4909,13 @@
         <v>120456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>99</v>
@@ -4912,13 +4924,13 @@
         <v>105322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
         <v>214</v>
@@ -4927,13 +4939,13 @@
         <v>225778</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4960,13 @@
         <v>157740</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -4963,13 +4975,13 @@
         <v>173044</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M12" s="7">
         <v>307</v>
@@ -4978,13 +4990,13 @@
         <v>330784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5011,13 @@
         <v>1764</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5014,13 +5026,13 @@
         <v>996</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5029,13 +5041,13 @@
         <v>2760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,7 +5068,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5071,7 +5083,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5086,7 +5098,7 @@
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,7 +5154,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5154,13 +5166,13 @@
         <v>12985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5169,13 +5181,13 @@
         <v>22614</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5184,13 +5196,13 @@
         <v>35599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5217,13 @@
         <v>36918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5220,13 +5232,13 @@
         <v>25286</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -5235,13 +5247,13 @@
         <v>62204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5268,13 @@
         <v>63680</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -5271,13 +5283,13 @@
         <v>60393</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M18" s="7">
         <v>116</v>
@@ -5286,13 +5298,13 @@
         <v>124073</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5319,13 @@
         <v>1072</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5328,7 +5340,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5337,13 +5349,13 @@
         <v>1072</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,7 +5376,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5379,7 +5391,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5394,7 +5406,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5474,13 @@
         <v>75424</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -5477,13 +5489,13 @@
         <v>98928</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -5492,13 +5504,13 @@
         <v>174352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5525,13 @@
         <v>174380</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -5528,13 +5540,13 @@
         <v>163229</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M23" s="7">
         <v>315</v>
@@ -5543,13 +5555,13 @@
         <v>337609</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5576,13 @@
         <v>253693</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H24" s="7">
         <v>277</v>
@@ -5579,13 +5591,13 @@
         <v>297264</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M24" s="7">
         <v>514</v>
@@ -5594,13 +5606,13 @@
         <v>550958</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5627,13 @@
         <v>3737</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>405</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5630,13 +5642,13 @@
         <v>996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>215</v>
+        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -5645,13 +5657,13 @@
         <v>4733</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,7 +5684,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>410</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5687,7 +5699,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5702,7 +5714,7 @@
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,7 +5770,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
